--- a/electro_optic_effect/electro_optic.xlsx
+++ b/electro_optic_effect/electro_optic.xlsx
@@ -200,7 +200,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -256,6 +256,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -429,11 +430,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57585557"/>
-        <c:axId val="75223319"/>
+        <c:axId val="38398890"/>
+        <c:axId val="85191354"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57585557"/>
+        <c:axId val="38398890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +468,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -489,12 +490,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75223319"/>
+        <c:crossAx val="85191354"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75223319"/>
+        <c:axId val="85191354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +538,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -559,7 +560,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57585557"/>
+        <c:crossAx val="38398890"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -611,16 +612,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -628,8 +629,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2478600" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4401000" y="20160"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -649,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
